--- a/文献整合.xlsx
+++ b/文献整合.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\wcp\gitproject\my-research-paper-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2CF8591-601F-46BD-BC26-D49A09006DB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93AEEB0D-43AE-45E6-ACB8-4C47DD8DF7F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{B1601AE5-C028-41AF-B124-81BF95162812}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{B1601AE5-C028-41AF-B124-81BF95162812}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="国外" sheetId="1" r:id="rId1"/>
+    <sheet name="国内" sheetId="2" r:id="rId2"/>
+    <sheet name="特征筛选" sheetId="3" r:id="rId3"/>
+    <sheet name="指南" sheetId="4" r:id="rId4"/>
+    <sheet name="心血管病-ICD" sheetId="5" r:id="rId5"/>
+    <sheet name="medication-ATC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>文献</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医院电子病历HER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主要是术后的一个术后并发症的预测。可以提供评估的结果是model accuracy,calibration,feature ranking and personalized feature responses 主要用于术后的呼吸衰竭以及感染方面的预测。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +88,304 @@
   </si>
   <si>
     <t>使用lasso方法取提取最相关的二分类变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院电子病历EHR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voxel Level Survival Analysis of Grey Matter Volume and Incident Mild Cognitive Impairment or Alzheimer’s Disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lubov E. Zeifman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是阿尔茨海默症医学影像学方面的生存分析模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国匹兹堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Naive Bayes machine learning approach to risk prediction using censored, time-to-event data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J. Wolfson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于电子病历数据的疾病预测模型构建研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究框架，主要是针对糖尿病伴随视网膜病变的预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过文献调研及专家访谈提取特征向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM在冠心病分类预测中的应用研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国南方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结了心血管疾病危险因素，主要传统因素年龄，家族史，男性，高血压，吸烟，血清TC升高，血清LDL-C升高，血清HDL-C降低，糖尿病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征的选择：高血压/血脂异常（包括血清总胆固醇水平，血清低密度脂蛋白胆固醇水平，血清甘油三酯水平，血清高密度脂蛋白水平过低）/糖尿病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脏病的预测算法中，用的最多的算法：朴素贝叶斯，决策树，和神经网络，另外一些核密度算法，自动定义组算法，bagging算法，支持向量机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基于大数据挖掘的高血压药物治疗方案研究
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国华西医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子病历HER，2008-2016年所有就诊数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要使用了诊断表，基本信息表，检验表，医嘱表，体温单，高血压类型进行了区分，一级高血压，二级高血压，三级高血压，原发性高血压，继发性高血压等，一共15万例，但是通过清洗以后2.4w例样本，清洗病人的条件是特征齐全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEATURES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QRISK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETHNICITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL INFORMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLINICAL INFORMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIABETES STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANHINA OR HEART ATTACK IN A 1ST DEGREE RELATIVE &lt;60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHRONIC KIDNEY DISEASE(STAGE 4 OR 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATRIAL FIBRILLATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON BLOOD PRESSURE TREATMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHEUMATOID ARTHRITIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOLESEROL/HDL RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTOLIC BLOOD PRESSURE(MMHG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMI( HEIGHT CM,WEIGHT KG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aim to predict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk of csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常有趣的是：Your score has been calculated using estimated data, as some information was left blank，Your body mass index was calculated as 16.33 kg/m2. This is outside of the range of the calculator, and a value of 20 kg/m2 was substituted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于missing data的处理方式是通过填充的方法预测的，而对于异常值，用正常值取替换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk of 
+a heart attack or stroke 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心血管疾病指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高血压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高血压的知晓率/治疗率/控制率，控制率低，2012年18岁以上分别为46.5%，41.1%和13.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸烟归隐疾病负担：利用2010年全球疾病负担研究，分析4类疾病（心脑血管疾病，癌症，慢性呼吸性疾病，糖尿病等慢性病）归因于吸烟的疾病负担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血脂异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血清总胆固醇TC，甘油三酯TG，2011年血脂异常患者管理和胆固醇达标情况调查显示，0.39患者接受降脂治疗，大多数使用他汀类药物。LDL-C达标率25.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖尿病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空腹血糖/餐后2h/糖化血红蛋白，IGT同样也会引起CVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超重/肥胖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥胖BMI&gt;=24.0，中心性肥胖率（男性腰围&gt;=90cm，女性&gt;=80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力活动不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合理膳食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法获得数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代谢综合征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹部肥胖或超重，脂代谢异常，高血压，糖尿病，胰岛素抵抗或葡萄糖耐量异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心血管病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑血管病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patterns of Multimorbidity in Middle-Aged and Older Adults: An Analysis of the UK Biobank Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dawit T. Zemedikun</t>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biobank data middle-aged and older adults</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是对多并发症之间的关联，评估流行性，分析疾病聚类以及多并发症模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combined cluster analysis and association rule mining to assess patterns of multimorbidity overall and by age, sex, and ethnicity.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +409,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,9 +452,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E931125A-5F6E-4649-A5B5-CD48EEAF6468}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,58 +815,487 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2">
         <v>2017</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>5214</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2015</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>5888</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <v>502643</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE49015-4E1A-4065-B709-FE62251BD663}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>2017</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>2013</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CDC85F-E53B-49EB-BAAB-9CD2766E9560}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="15" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B323893-C613-4748-92B5-3CDEB5DFABE4}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D30499C-87A0-44A7-ACA8-78BE925530CD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B27827-AB0B-47B3-BC00-23C8C4AC84B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>